--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Первичный балл</t>
   </si>
@@ -32,12 +32,21 @@
   <si>
     <t>Информатика</t>
   </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>вероятность</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +68,31 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +117,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,11 +177,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +218,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,18 +509,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F22"/>
+  <dimension ref="C5:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="4" customWidth="1"/>
     <col min="3" max="6" width="15" style="1" customWidth="1"/>
+    <col min="9" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,8 +530,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,16 +557,32 @@
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -501,8 +595,16 @@
       <c r="F9" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -515,8 +617,16 @@
       <c r="F10" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
@@ -529,8 +639,16 @@
       <c r="F11" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -543,8 +661,16 @@
       <c r="F12" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="8">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="3:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>6</v>
       </c>
@@ -557,8 +683,16 @@
       <c r="F13" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="8">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>7</v>
       </c>
@@ -571,8 +705,16 @@
       <c r="F14" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="8">
+        <v>8</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="3:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>8</v>
       </c>
@@ -585,8 +727,16 @@
       <c r="F15" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="8">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>9</v>
       </c>
@@ -599,8 +749,16 @@
       <c r="F16" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>10</v>
       </c>
@@ -613,8 +771,16 @@
       <c r="F17" s="7">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="8">
+        <v>11</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>11</v>
       </c>
@@ -627,8 +793,16 @@
       <c r="F18" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="8">
+        <v>12</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>12</v>
       </c>
@@ -641,8 +815,16 @@
       <c r="F19" s="7">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="8">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>13</v>
       </c>
@@ -655,8 +837,16 @@
       <c r="F20" s="7">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="8">
+        <v>14</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>14</v>
       </c>
@@ -669,8 +859,20 @@
       <c r="F21" s="7">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="8">
+        <v>15</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="11">
+        <v>5</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>15</v>
       </c>
@@ -683,6 +885,124 @@
       <c r="F22" s="7">
         <v>100</v>
       </c>
+      <c r="H22" s="8">
+        <v>16</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="8">
+        <v>17</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <v>19</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="8">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H28" s="8">
+        <v>22</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H29" s="8">
+        <v>23</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H30" s="8">
+        <v>24</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H31" s="8">
+        <v>25</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H32" s="8">
+        <v>26</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="8:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H33" s="8">
+        <v>27</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +91,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,12 +244,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M33"/>
+  <dimension ref="C5:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,8 +583,12 @@
       <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -708,8 +735,12 @@
       <c r="H14" s="8">
         <v>8</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -888,8 +919,12 @@
       <c r="H22" s="8">
         <v>16</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="11">
+        <v>5</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -898,8 +933,12 @@
       <c r="H23" s="8">
         <v>17</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="11">
+        <v>5</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -1004,6 +1043,16 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
+    <row r="35" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="12">
+        <f>SUM(I7:I33)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J35" s="12">
+        <f>SUM(J7:J33)</f>
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="C5:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I32"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
         <v>0.9</v>
       </c>
       <c r="J23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J35" s="12">
         <f>SUM(J7:J33)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -47,11 +47,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +74,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -104,6 +113,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -119,7 +136,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,29 +152,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5181B8"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFEBEBEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBFEEB"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFEBFEEB"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -187,36 +210,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF8000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -243,56 +236,68 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,6 +310,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -323,10 +345,10 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFEBFEEB"/>
+      <rgbColor rgb="FFEBEBEB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -340,18 +362,18 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFEBEBEB"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFF2F2"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF5181B8"/>
       <rgbColor rgb="FF969696"/>
@@ -545,552 +567,620 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:M35"/>
+  <dimension ref="C2:M35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="2" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="16.43"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="3" t="n">
+        <v>44</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="I7" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="I8" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="I9" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="I10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="I11" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="I12" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="12" t="n">
         <v>78</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="I13" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="6" t="n">
+      <c r="I14" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>8</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="13" t="n">
         <v>83</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="I15" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="6" t="n">
+      <c r="I16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>54</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>93</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E20" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>51</v>
-      </c>
-      <c r="E17" s="10" t="n">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="F17" s="10" t="n">
-        <v>88</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>54</v>
-      </c>
-      <c r="E18" s="10" t="n">
+      <c r="I30" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="F18" s="10" t="n">
-        <v>90</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10" t="n">
+      <c r="I31" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="F19" s="10" t="n">
-        <v>93</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>59</v>
-      </c>
-      <c r="E20" s="10" t="n">
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="F20" s="10" t="n">
-        <v>95</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>98</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="5" t="n">
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="15" t="n">
+        <f aca="false">SUM(I7:I33)</f>
         <v>21</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="12" t="n">
-        <f aca="false">SUM(I7:I33)</f>
-        <v>9.9</v>
-      </c>
-      <c r="J35" s="12" t="n">
+      <c r="J35" s="15" t="n">
         <f aca="false">SUM(J7:J33)</f>
-        <v>63</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I7:I33">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Documents\GitHub\ege-24-25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,37 +26,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t xml:space="preserve">ЕГЭ 2025</t>
+    <t>ЕГЭ 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Информатика</t>
+    <t>Информатика</t>
   </si>
   <si>
-    <t xml:space="preserve">№</t>
+    <t>№</t>
   </si>
   <si>
-    <t xml:space="preserve">вероятность</t>
+    <t>вероятность</t>
   </si>
   <si>
-    <t xml:space="preserve">время</t>
+    <t>время</t>
   </si>
   <si>
-    <t xml:space="preserve">Первичный балл</t>
+    <t>Первичный балл</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестовый балл</t>
+    <t>Тестовый балл</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,22 +63,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +71,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,7 +100,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -128,7 +115,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,7 +123,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,16 +166,28 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFEBEBEB"/>
       </left>
@@ -203,122 +202,85 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill>
@@ -327,6 +289,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -385,60 +348,79 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -470,7 +452,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -494,7 +476,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -554,38 +536,37 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C2:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="2" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="16.43"/>
+    <col min="1" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15" style="2" customWidth="1"/>
+    <col min="9" max="13" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="3" t="n">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
@@ -607,7 +588,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
@@ -620,533 +601,533 @@
       <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>0.9</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="9">
         <v>6</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="10" t="n">
+    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>7</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>0.8</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="9">
         <v>6</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10" t="n">
+    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>16</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>67</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="8">
         <v>0.9</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>8</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="10" t="n">
+    <row r="10" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>17</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="12">
         <v>70</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="9">
         <v>4</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10" t="n">
+    <row r="11" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>27</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="12">
         <v>18</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="12">
         <v>72</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="8">
         <v>0.9</v>
       </c>
-      <c r="J11" s="9" t="n">
-        <v>5</v>
+      <c r="J11" s="9">
+        <v>7</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10" t="n">
+    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>34</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="12">
         <v>19</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="12">
         <v>75</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>6</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>0.9</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="9">
         <v>6</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10" t="n">
+    <row r="13" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>40</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>20</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>78</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="8">
         <v>0.6</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="9">
         <v>6</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10" t="n">
+    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="12">
         <v>21</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="12">
         <v>80</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>0.9</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="9">
         <v>5</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="10" t="n">
+    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>46</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="13">
         <v>22</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="13">
         <v>83</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="7">
         <v>9</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="8">
         <v>0.8</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="9">
         <v>5</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12" t="n">
+    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="12">
         <v>9</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="12">
         <v>48</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="13">
         <v>23</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="13">
         <v>85</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>1</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="9">
         <v>4</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12" t="n">
+    <row r="17" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="12">
         <v>10</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="12">
         <v>51</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="13">
         <v>24</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="13">
         <v>88</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="7">
         <v>11</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="8">
         <v>0.6</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="9">
         <v>6</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14" t="n">
+    <row r="18" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="14">
         <v>11</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="14">
         <v>54</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="13">
         <v>25</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="13">
         <v>90</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="8">
         <v>0.9</v>
       </c>
-      <c r="J18" s="9" t="n">
-        <v>5</v>
+      <c r="J18" s="9">
+        <v>7</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12" t="n">
+    <row r="19" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
         <v>12</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="12">
         <v>56</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="13">
         <v>26</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="13">
         <v>93</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="7">
         <v>13</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="8">
         <v>0.6</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="9">
         <v>10</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="12" t="n">
+    <row r="20" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
         <v>13</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="12">
         <v>59</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="13">
         <v>27</v>
       </c>
-      <c r="F20" s="13" t="n">
+      <c r="F20" s="13">
         <v>95</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="7">
         <v>14</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>0.9</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="9">
         <v>6</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12" t="n">
+    <row r="21" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
         <v>14</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="12">
         <v>62</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="13">
         <v>28</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="13">
         <v>98</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="7">
         <v>15</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>0.9</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="9">
         <v>5</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12" t="n">
+    <row r="22" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="12">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="12">
         <v>64</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="13">
         <v>29</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="13">
         <v>100</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="16">
         <v>16</v>
       </c>
-      <c r="I22" s="8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>5</v>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>3</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="7" t="n">
+    <row r="23" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
         <v>17</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>0.9</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="9">
         <v>8</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="7" t="n">
+    <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="8">
         <v>0.9</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="9">
         <v>8</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="7" t="n">
+    <row r="25" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H25" s="17">
         <v>19</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="8">
         <v>1</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="9">
         <v>6</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="7" t="n">
+    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="17">
         <v>20</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="8">
         <v>0.9</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="9">
         <v>10</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="7" t="n">
+    <row r="27" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="17">
         <v>21</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="8">
         <v>0.7</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="9">
         <v>20</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="7" t="n">
+    <row r="28" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H28" s="7">
         <v>22</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="8">
         <v>0.6</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="9">
         <v>20</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="7" t="n">
+    <row r="29" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H29" s="16">
         <v>23</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="8">
         <v>1</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="9">
         <v>3</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="7" t="n">
+    <row r="30" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H30" s="7">
         <v>24</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="8">
         <v>0.6</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="9">
         <v>8</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="7" t="n">
+    <row r="31" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H31" s="7">
         <v>25</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="8">
         <v>0.9</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="9">
         <v>5</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="7" t="n">
+    <row r="32" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H32" s="7">
         <v>26</v>
       </c>
       <c r="I32" s="8"/>
@@ -1155,8 +1136,8 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="7" t="n">
+    <row r="33" spans="8:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H33" s="7">
         <v>27</v>
       </c>
       <c r="I33" s="8"/>
@@ -1165,28 +1146,23 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="15" t="n">
-        <f aca="false">SUM(I7:I33)</f>
-        <v>21</v>
-      </c>
-      <c r="J35" s="15" t="n">
-        <f aca="false">SUM(J7:J33)</f>
-        <v>180</v>
+    <row r="35" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="15">
+        <f>SUM(I7:I33)</f>
+        <v>21.099999999999998</v>
+      </c>
+      <c r="J35" s="15">
+        <f>SUM(J7:J33)</f>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I7:I33">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/scale-balls-2025.xlsx
+++ b/scale-balls-2025.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="8">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="9">
         <v>6</v>
@@ -1149,7 +1149,7 @@
     <row r="35" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I35" s="15">
         <f>SUM(I7:I33)</f>
-        <v>21.099999999999998</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="J35" s="15">
         <f>SUM(J7:J33)</f>
